--- a/results_11_Jun/dht_in_0611.xlsx
+++ b/results_11_Jun/dht_in_0611.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="30" windowWidth="18975" windowHeight="8640"/>
+    <workbookView xWindow="2340" yWindow="30" windowWidth="18975" windowHeight="8640"/>
   </bookViews>
   <sheets>
-    <sheet name="หลังวันที่11" sheetId="1" r:id="rId1"/>
+    <sheet name="InsideAfter2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
